--- a/test_物件管理/已完成/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
+++ b/test_物件管理/已完成/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="3"/>
+    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -4976,11 +4976,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5129,9 +5129,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5144,31 +5144,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5182,30 +5166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5217,15 +5178,8 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5241,6 +5195,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -5249,7 +5219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5265,7 +5235,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5370,37 +5370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5412,19 +5388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5442,31 +5406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5478,7 +5430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5502,19 +5460,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5533,6 +5521,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5596,21 +5596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5622,15 +5607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5662,6 +5638,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -5683,6 +5668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5699,10 +5699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5711,16 +5711,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5729,116 +5729,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6326,8 +6326,8 @@
   <sheetPr/>
   <dimension ref="A2:IE367"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="Q311" sqref="Q311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -54508,7 +54508,7 @@
   <dimension ref="A1:IE31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -56133,7 +56133,7 @@
   <sheetPr/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
